--- a/biology/Botanique/Grewia_occidentalis/Grewia_occidentalis.xlsx
+++ b/biology/Botanique/Grewia_occidentalis/Grewia_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia occidentalis est une espèce de plantes de la famille des Tiliaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 Elle est originaire d'un grand nombre de paysages du sud de l'Afrique (Afrique du Sud, Mozambique, Zimbabwe).
